--- a/src/Benchmarks.xlsx
+++ b/src/Benchmarks.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angelu.angelu-PC\Graph-Coloring-Problem\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE895134-722A-4CC3-94F5-558A884EABAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E9C2CD-FE67-4ECF-A36D-98FD3E547000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAR" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Graph</t>
   </si>
@@ -188,39 +188,6 @@
     <t>queen9_9</t>
   </si>
   <si>
-    <t>10-48214</t>
-  </si>
-  <si>
-    <t>100-83658</t>
-  </si>
-  <si>
-    <t>20-1149</t>
-  </si>
-  <si>
-    <t>30-48225</t>
-  </si>
-  <si>
-    <t>40-54484</t>
-  </si>
-  <si>
-    <t>50-23313</t>
-  </si>
-  <si>
-    <t>60-32216</t>
-  </si>
-  <si>
-    <t>70-62089</t>
-  </si>
-  <si>
-    <t>80-18892</t>
-  </si>
-  <si>
-    <t>90-87887</t>
-  </si>
-  <si>
-    <t>10-2</t>
-  </si>
-  <si>
     <t>100-4950</t>
   </si>
   <si>
@@ -251,17 +218,40 @@
     <t>190-17955</t>
   </si>
   <si>
-    <t>20-35</t>
-  </si>
-  <si>
-    <t>20-38</t>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>20-32</t>
+  </si>
+  <si>
+    <t>200-19900</t>
+  </si>
+  <si>
+    <t>30-136</t>
+  </si>
+  <si>
+    <t>40-303</t>
+  </si>
+  <si>
+    <t>50-640</t>
+  </si>
+  <si>
+    <t>60-1092</t>
+  </si>
+  <si>
+    <t>70-1692</t>
+  </si>
+  <si>
+    <t>80-2536</t>
+  </si>
+  <si>
+    <t>90-3588</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -622,8 +612,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.69921875" collapsed="true"/>
-    <col min="2" max="22" customWidth="true" width="7.59765625" collapsed="true"/>
+    <col min="1" max="1" width="17.69921875" customWidth="1" collapsed="1"/>
+    <col min="2" max="22" width="7.59765625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,81 +678,81 @@
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>100.0</v>
+      <c r="B3" s="2">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2">
+        <v>100</v>
       </c>
       <c r="D3" s="3">
-        <f>(2*(C3))/(B3*(B3-1))</f>
+        <f t="shared" ref="D3:D22" si="0">(2*(C3))/(B3*(B3-1))</f>
         <v>0.22988505747126436</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E22" si="0">MIN(G3,I3,K3)</f>
+        <f t="shared" ref="E3:E22" si="1">MIN(G3,I3,K3)</f>
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>MIN(H3,J3,L3)</f>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.03228244799999999</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.022014789999999996</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>0.04124217300000003</v>
+      <c r="G3" s="5">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3.2282447999999991E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2.2014789999999996E-2</v>
+      </c>
+      <c r="K3" s="5">
+        <v>4</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4.1242173000000028E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>593.0</v>
+      <c r="B4" s="2">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2">
+        <v>593</v>
       </c>
       <c r="D4" s="3">
-        <f>(2*(C4))/(B4*(B4-1))</f>
+        <f t="shared" si="0"/>
         <v>0.1386161757830762</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F4:F22" si="1">MIN(H4,J4,L4)</f>
+        <f t="shared" ref="F4:F22" si="2">MIN(H4,J4,L4)</f>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>0.09751261800000018</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>0.0814819669999999</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L4" s="5" t="n">
+      <c r="G4" s="5">
+        <v>6</v>
+      </c>
+      <c r="H4" s="5">
+        <v>9.7512618000000176E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <v>8.1481966999999905E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>5</v>
+      </c>
+      <c r="L4" s="5">
         <v>0.12649680800000002</v>
       </c>
     </row>
@@ -770,122 +760,122 @@
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>282.0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1894.0</v>
+      <c r="B5" s="2">
+        <v>282</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1894</v>
       </c>
       <c r="D5" s="3">
-        <f>(2*(C5))/(B5*(B5-1))</f>
+        <f t="shared" si="0"/>
         <v>4.7802932788167891E-2</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>0.55763595</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>0.2773707509999999</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>0.6635605410000003</v>
+      <c r="G5" s="5">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.55763594999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.27737075099999992</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.66356054100000028</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>232.0</v>
+      <c r="B6" s="2">
+        <v>67</v>
+      </c>
+      <c r="C6" s="2">
+        <v>232</v>
       </c>
       <c r="D6" s="3">
-        <f>(2*(C6))/(B6*(B6-1))</f>
+        <f t="shared" si="0"/>
         <v>0.10492989597467209</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.976534999999998E-2</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>0.03344435999999995</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>0.019265523000000017</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>0.0381431129999999</v>
+      <c r="G6" s="5">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.3444359999999951E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.9265523000000017E-2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3.8143112999999902E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>202.0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1227.0</v>
+      <c r="B7" s="2">
+        <v>202</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1227</v>
       </c>
       <c r="D7" s="3">
-        <f>(2*(C7))/(B7*(B7-1))</f>
+        <f t="shared" si="0"/>
         <v>6.0440372395448499E-2</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="H7" s="5" t="n">
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
         <v>0.37216895600000005</v>
       </c>
-      <c r="I7" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J7" s="5" t="n">
+      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5">
         <v>0.1291028060000001</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="K7" s="5">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5">
         <v>0.33541097299999995</v>
       </c>
     </row>
@@ -893,40 +883,40 @@
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>607.0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>6337.0</v>
+      <c r="B8" s="2">
+        <v>607</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6337</v>
       </c>
       <c r="D8" s="3">
-        <f>(2*(C8))/(B8*(B8-1))</f>
+        <f t="shared" si="0"/>
         <v>3.445501057519261E-2</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>9.320726437999994</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>0.811415326999999</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="G8" s="5">
+        <v>8</v>
+      </c>
+      <c r="H8" s="5">
+        <v>9.3207264379999941</v>
+      </c>
+      <c r="I8" s="5">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.81141532699999896</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5">
         <v>6.0659738320000045</v>
       </c>
     </row>
@@ -934,122 +924,122 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>201.0</v>
+      <c r="B9" s="2">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2">
+        <v>201</v>
       </c>
       <c r="D9" s="3">
-        <f>(2*(C9))/(B9*(B9-1))</f>
+        <f t="shared" si="0"/>
         <v>0.15158371040723981</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0.023369023000000013</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0.020883546999999936</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0.033493663999999965</v>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2.3369023000000013E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2.0883546999999936E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5</v>
+      </c>
+      <c r="L9" s="5">
+        <v>3.3493663999999965E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>212.0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1621.0</v>
+      <c r="B10" s="2">
+        <v>212</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1621</v>
       </c>
       <c r="D10" s="3">
-        <f>(2*(C10))/(B10*(B10-1))</f>
+        <f t="shared" si="0"/>
         <v>7.2476079763927392E-2</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>0.4661245780000002</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J10" s="5" t="n">
+      <c r="G10" s="5">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.46612457800000018</v>
+      </c>
+      <c r="I10" s="5">
+        <v>14</v>
+      </c>
+      <c r="J10" s="5">
         <v>0.24252200199999957</v>
       </c>
-      <c r="K10" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.5062039690000003</v>
+      <c r="K10" s="5">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.50620396900000031</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>852.0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>12201.0</v>
+      <c r="B11" s="2">
+        <v>852</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12201</v>
       </c>
       <c r="D11" s="3">
-        <f>(2*(C11))/(B11*(B11-1))</f>
+        <f t="shared" si="0"/>
         <v>3.3655517121530594E-2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>25.218610906</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J11" s="5" t="n">
+      <c r="G11" s="5">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5">
+        <v>25.218610905999999</v>
+      </c>
+      <c r="I11" s="5">
+        <v>18</v>
+      </c>
+      <c r="J11" s="5">
         <v>1.9666136509999983</v>
       </c>
-      <c r="K11" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L11" s="5" t="n">
+      <c r="K11" s="5">
+        <v>8</v>
+      </c>
+      <c r="L11" s="5">
         <v>12.425548565000017</v>
       </c>
       <c r="M11" s="4"/>
@@ -1058,81 +1048,81 @@
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>72.0</v>
+      <c r="B12" s="2">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2">
+        <v>72</v>
       </c>
       <c r="D12" s="3">
-        <f>(2*(C12))/(B12*(B12-1))</f>
+        <f t="shared" si="0"/>
         <v>0.10810810810810811</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2054350000000004E-2</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>0.010736984000000003</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>0.0047936889999999925</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>0.011600809000000014</v>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.0736984000000003E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5">
+        <v>4.7936889999999925E-3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>4</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.1600809000000014E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>541.0</v>
+      <c r="B13" s="2">
+        <v>149</v>
+      </c>
+      <c r="C13" s="2">
+        <v>541</v>
       </c>
       <c r="D13" s="3">
-        <f>(2*(C13))/(B13*(B13-1))</f>
+        <f t="shared" si="0"/>
         <v>4.906584436785779E-2</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>0.135753409</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>0.048851255999999885</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="G13" s="5">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.13575340899999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4.8851255999999885E-2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>5</v>
+      </c>
+      <c r="L13" s="5">
         <v>0.12712599700000002</v>
       </c>
       <c r="M13" s="4"/>
@@ -1141,40 +1131,40 @@
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>597.0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>3936.0</v>
+      <c r="B14" s="2">
+        <v>597</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3936</v>
       </c>
       <c r="D14" s="3">
-        <f>(2*(C14))/(B14*(B14-1))</f>
+        <f t="shared" si="0"/>
         <v>2.2124043033961757E-2</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G14" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>8.022329994000017</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J14" s="5" t="n">
+      <c r="G14" s="5">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5">
+        <v>8.0223299940000175</v>
+      </c>
+      <c r="I14" s="5">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5">
         <v>0.48033532500000004</v>
       </c>
-      <c r="K14" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="K14" s="5">
+        <v>6</v>
+      </c>
+      <c r="L14" s="5">
         <v>4.511826919999999</v>
       </c>
       <c r="M14" s="4"/>
@@ -1183,41 +1173,41 @@
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>346.0</v>
+      <c r="B15" s="2">
+        <v>80</v>
+      </c>
+      <c r="C15" s="2">
+        <v>346</v>
       </c>
       <c r="D15" s="3">
-        <f>(2*(C15))/(B15*(B15-1))</f>
+        <f t="shared" si="0"/>
         <v>0.10949367088607595</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8458200000000001E-2</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>0.04727920100000003</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>0.04217510599999998</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>0.065128277</v>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.7279201000000028E-2</v>
+      </c>
+      <c r="I15" s="5">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5">
+        <v>4.2175105999999983E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>6</v>
+      </c>
+      <c r="L15" s="5">
+        <v>6.5128276999999998E-2</v>
       </c>
       <c r="M15" s="4"/>
     </row>
@@ -1225,40 +1215,40 @@
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>405.0</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>3524.0</v>
+      <c r="B16" s="2">
+        <v>405</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3524</v>
       </c>
       <c r="D16" s="3">
-        <f>(2*(C16))/(B16*(B16-1))</f>
+        <f t="shared" si="0"/>
         <v>4.3075418652976406E-2</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G16" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="H16" s="5" t="n">
-        <v>2.301317275000002</v>
-      </c>
-      <c r="I16" s="5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J16" s="5" t="n">
-        <v>0.5813237509999991</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L16" s="5" t="n">
+      <c r="G16" s="5">
+        <v>8</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2.3013172750000019</v>
+      </c>
+      <c r="I16" s="5">
+        <v>17</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.58132375099999911</v>
+      </c>
+      <c r="K16" s="5">
+        <v>7</v>
+      </c>
+      <c r="L16" s="5">
         <v>2.0566745689999997</v>
       </c>
     </row>
@@ -1266,40 +1256,40 @@
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>2030.0</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>33751.0</v>
+      <c r="B17" s="2">
+        <v>2030</v>
+      </c>
+      <c r="C17" s="2">
+        <v>33751</v>
       </c>
       <c r="D17" s="3">
-        <f>(2*(C17))/(B17*(B17-1))</f>
+        <f t="shared" si="0"/>
         <v>1.6388475479925318E-2</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G17" s="5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="H17" s="5" t="n">
+      <c r="G17" s="5">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
         <v>367.57723619400053</v>
       </c>
-      <c r="I17" s="5" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="J17" s="5" t="n">
-        <v>4.561405941000008</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="I17" s="5">
+        <v>22</v>
+      </c>
+      <c r="J17" s="5">
+        <v>4.5614059410000083</v>
+      </c>
+      <c r="K17" s="5">
+        <v>8</v>
+      </c>
+      <c r="L17" s="5">
         <v>137.13950566299977</v>
       </c>
     </row>
@@ -1307,163 +1297,163 @@
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>110.0</v>
+      <c r="B18" s="2">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2">
+        <v>110</v>
       </c>
       <c r="D18" s="3">
-        <f>(2*(C18))/(B18*(B18-1))</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1429199999999997E-2</v>
       </c>
-      <c r="G18" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H18" s="5" t="n">
-        <v>0.01872287300000005</v>
-      </c>
-      <c r="I18" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J18" s="5" t="n">
-        <v>0.007606070999999971</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>0.019465328000000046</v>
+      <c r="G18" s="5">
+        <v>4</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1.872287300000005E-2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5">
+        <v>7.6060709999999712E-3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1.9465328000000046E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>281.0</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>1046.0</v>
+      <c r="B19" s="2">
+        <v>281</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1046</v>
       </c>
       <c r="D19" s="3">
-        <f>(2*(C19))/(B19*(B19-1))</f>
+        <f t="shared" si="0"/>
         <v>2.6588713777325877E-2</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>0.645690681000001</v>
-      </c>
-      <c r="I19" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J19" s="5" t="n">
+      <c r="G19" s="5">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.64569068100000104</v>
+      </c>
+      <c r="I19" s="5">
+        <v>5</v>
+      </c>
+      <c r="J19" s="5">
         <v>0.10561778799999987</v>
       </c>
-      <c r="K19" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>0.5198734960000005</v>
+      <c r="K19" s="5">
+        <v>5</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.51987349600000055</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>1406.0</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>9695.0</v>
+      <c r="B20" s="2">
+        <v>1406</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9695</v>
       </c>
       <c r="D20" s="3">
-        <f>(2*(C20))/(B20*(B20-1))</f>
+        <f t="shared" si="0"/>
         <v>9.8155844550300436E-3</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>99.09197199699994</v>
-      </c>
-      <c r="I20" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J20" s="5" t="n">
+      <c r="G20" s="5">
+        <v>7</v>
+      </c>
+      <c r="H20" s="5">
+        <v>99.091971996999945</v>
+      </c>
+      <c r="I20" s="5">
+        <v>6</v>
+      </c>
+      <c r="J20" s="5">
         <v>1.197398956999999</v>
       </c>
-      <c r="K20" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>51.92505265700002</v>
+      <c r="K20" s="5">
+        <v>6</v>
+      </c>
+      <c r="L20" s="5">
+        <v>51.925052657000023</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>114.0</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>541.0</v>
+      <c r="B21" s="2">
+        <v>114</v>
+      </c>
+      <c r="C21" s="2">
+        <v>541</v>
       </c>
       <c r="D21" s="3">
-        <f>(2*(C21))/(B21*(B21-1))</f>
+        <f t="shared" si="0"/>
         <v>8.3993168762614506E-2</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>0.08714103300000006</v>
-      </c>
-      <c r="I21" s="5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J21" s="5" t="n">
-        <v>0.07156496900000014</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="L21" s="5" t="n">
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5">
+        <v>8.7141033000000062E-2</v>
+      </c>
+      <c r="I21" s="5">
+        <v>14</v>
+      </c>
+      <c r="J21" s="5">
+        <v>7.1564969000000145E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <v>7</v>
+      </c>
+      <c r="L21" s="5">
         <v>0.12121996000000006</v>
       </c>
     </row>
@@ -1471,41 +1461,41 @@
       <c r="A22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>156.0</v>
+      <c r="B22" s="2">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2">
+        <v>156</v>
       </c>
       <c r="D22" s="3">
-        <f>(2*(C22))/(B22*(B22-1))</f>
+        <f t="shared" si="0"/>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3577499999999996E-2</v>
       </c>
-      <c r="G22" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>0.032077245999999844</v>
-      </c>
-      <c r="I22" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J22" s="5" t="n">
-        <v>0.011574084000000017</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>0.03313789599999995</v>
+      <c r="G22" s="5">
+        <v>4</v>
+      </c>
+      <c r="H22" s="5">
+        <v>3.2077245999999844E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>4</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1.1574084000000017E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3.3137895999999951E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2781,13 +2771,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F118A9-1CB2-4F82-AFFF-095B57223E9F}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="1" max="1" width="21" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.25">
@@ -2920,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="E3:F18" si="1">MIN(H4,J4,L4)</f>
+        <f t="shared" ref="F4:F18" si="1">MIN(H4,J4,L4)</f>
         <v>0.11084305000000001</v>
       </c>
       <c r="G4" s="5">
@@ -2961,7 +2951,7 @@
         <v>0.3956692913385827</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" ref="E4:E22" si="2">MIN(G5,I5,K5)</f>
+        <f t="shared" ref="E5:E22" si="2">MIN(G5,I5,K5)</f>
         <v>42</v>
       </c>
       <c r="F5" s="3">
@@ -3551,7 +3541,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" ref="E19:F22" si="4">MIN(H19,J19,L19)</f>
+        <f t="shared" ref="F19:F22" si="4">MIN(H19,J19,L19)</f>
         <v>0.11084305000000001</v>
       </c>
       <c r="G19" s="5">
@@ -3716,13 +3706,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C90155-51E0-4C91-A0D2-4EAF41ED9ACD}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.296875" collapsed="true"/>
+    <col min="1" max="1" width="23.296875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
@@ -3787,820 +3777,820 @@
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>2.0</v>
+      <c r="B3" s="2">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
       </c>
       <c r="D3" s="3">
-        <f>(2*(C3))/(B3*(B3-1))</f>
+        <f t="shared" ref="D3:D22" si="0">(2*(C3))/(B3*(B3-1))</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:F18" si="0">MIN(G3,I3,K3)</f>
+        <f t="shared" ref="E3:F18" si="1">MIN(G3,I3,K3)</f>
         <v>4</v>
       </c>
       <c r="F3" s="3">
         <f>MIN(H3,J3,L3)</f>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G3" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>0.016461216999999993</v>
-      </c>
-      <c r="I3" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J3" s="5" t="n">
-        <v>0.013003452999999998</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="L3" s="5" t="n">
-        <v>0.01666706199999999</v>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1.755014299999999E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5">
+        <v>6.2452549999999982E-3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.4329397000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>4950.0</v>
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4950</v>
       </c>
       <c r="D4" s="3">
-        <f>(2*(C4))/(B4*(B4-1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G4" s="5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2.187336537000001</v>
-      </c>
-      <c r="I4" s="5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="J4" s="5" t="n">
-        <v>4.919419143000001</v>
-      </c>
-      <c r="K4" s="5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="L4" s="5" t="n">
-        <v>15.342602128999998</v>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2.1344472559999979</v>
+      </c>
+      <c r="I4" s="5">
+        <v>100</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4.8724419130000021</v>
+      </c>
+      <c r="K4" s="5">
+        <v>100</v>
+      </c>
+      <c r="L4" s="5">
+        <v>15.189111391000008</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>5995.0</v>
+        <v>52</v>
+      </c>
+      <c r="B5" s="2">
+        <v>110</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5995</v>
       </c>
       <c r="D5" s="3">
-        <f>(2*(C5))/(B5*(B5-1))</f>
+        <f t="shared" si="0"/>
         <v>0.22105263157894736</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G5" s="5" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>2.700420321000002</v>
-      </c>
-      <c r="I5" s="5" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>6.280968265999991</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>21.386195768000004</v>
+      <c r="G5" s="5">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.7311836190000021</v>
+      </c>
+      <c r="I5" s="5">
+        <v>110</v>
+      </c>
+      <c r="J5" s="5">
+        <v>6.285291127000006</v>
+      </c>
+      <c r="K5" s="5">
+        <v>110</v>
+      </c>
+      <c r="L5" s="5">
+        <v>21.403236273000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>7140.0</v>
+        <v>53</v>
+      </c>
+      <c r="B6" s="2">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7140</v>
       </c>
       <c r="D6" s="3">
-        <f>(2*(C6))/(B6*(B6-1))</f>
+        <f t="shared" si="0"/>
         <v>0.30114942528735633</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.976534999999998E-2</v>
       </c>
-      <c r="G6" s="5" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>3.4156559279999987</v>
-      </c>
-      <c r="I6" s="5" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="J6" s="5" t="n">
-        <v>7.972101092000003</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>120.0</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>30.26467140900003</v>
+      <c r="G6" s="5">
+        <v>120</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3.4338868999999987</v>
+      </c>
+      <c r="I6" s="5">
+        <v>120</v>
+      </c>
+      <c r="J6" s="5">
+        <v>7.9236338469999898</v>
+      </c>
+      <c r="K6" s="5">
+        <v>120</v>
+      </c>
+      <c r="L6" s="5">
+        <v>29.977785367999971</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>8385.0</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="2">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8385</v>
       </c>
       <c r="D7" s="3">
-        <f>(2*(C7))/(B7*(B7-1))</f>
+        <f t="shared" si="0"/>
         <v>0.37179487179487181</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>130</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>4.3077395409999975</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>9.999037876999994</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>42.241601055000054</v>
+      <c r="G7" s="5">
+        <v>130</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4.2341472839999987</v>
+      </c>
+      <c r="I7" s="5">
+        <v>130</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.8404433989999909</v>
+      </c>
+      <c r="K7" s="5">
+        <v>130</v>
+      </c>
+      <c r="L7" s="5">
+        <v>41.155604840000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>9730.0</v>
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9730</v>
       </c>
       <c r="D8" s="3">
-        <f>(2*(C8))/(B8*(B8-1))</f>
+        <f t="shared" si="0"/>
         <v>0.50775510204081631</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G8" s="5" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>5.265059620000003</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="J8" s="5" t="n">
-        <v>12.256951441999988</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>140.0</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>57.1413003769999</v>
+      <c r="G8" s="5">
+        <v>140</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5.3897028379999945</v>
+      </c>
+      <c r="I8" s="5">
+        <v>140</v>
+      </c>
+      <c r="J8" s="5">
+        <v>12.43062351600001</v>
+      </c>
+      <c r="K8" s="5">
+        <v>140</v>
+      </c>
+      <c r="L8" s="5">
+        <v>58.287598738000071</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>11175.0</v>
+        <v>56</v>
+      </c>
+      <c r="B9" s="2">
+        <v>150</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11175</v>
       </c>
       <c r="D9" s="3">
-        <f>(2*(C9))/(B9*(B9-1))</f>
+        <f t="shared" si="0"/>
         <v>0.60112994350282489</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>6.271186201999999</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>14.582057806000021</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>74.35733956500002</v>
+      <c r="G9" s="5">
+        <v>150</v>
+      </c>
+      <c r="H9" s="5">
+        <v>6.3362844319999931</v>
+      </c>
+      <c r="I9" s="5">
+        <v>150</v>
+      </c>
+      <c r="J9" s="5">
+        <v>14.597028414000018</v>
+      </c>
+      <c r="K9" s="5">
+        <v>150</v>
+      </c>
+      <c r="L9" s="5">
+        <v>74.243933900999991</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>12720.0</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="2">
+        <v>160</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12720</v>
       </c>
       <c r="D10" s="3">
-        <f>(2*(C10))/(B10*(B10-1))</f>
+        <f t="shared" si="0"/>
         <v>0.70766045548654244</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>160</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G10" s="5" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="H10" s="5" t="n">
-        <v>7.665885235999988</v>
-      </c>
-      <c r="I10" s="5" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="J10" s="5" t="n">
-        <v>17.418253774</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>98.14930155699996</v>
+      <c r="G10" s="5">
+        <v>160</v>
+      </c>
+      <c r="H10" s="5">
+        <v>7.6388646200000103</v>
+      </c>
+      <c r="I10" s="5">
+        <v>160</v>
+      </c>
+      <c r="J10" s="5">
+        <v>17.573320460999984</v>
+      </c>
+      <c r="K10" s="5">
+        <v>160</v>
+      </c>
+      <c r="L10" s="5">
+        <v>96.906514858999984</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>14365.0</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="2">
+        <v>170</v>
+      </c>
+      <c r="C11" s="2">
+        <v>14365</v>
       </c>
       <c r="D11" s="3">
-        <f>(2*(C11))/(B11*(B11-1))</f>
+        <f t="shared" si="0"/>
         <v>0.79968354430379751</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="H11" s="5" t="n">
-        <v>9.00582880299999</v>
-      </c>
-      <c r="I11" s="5" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="J11" s="5" t="n">
-        <v>20.437967271999977</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>128.2812305860002</v>
+      <c r="G11" s="5">
+        <v>170</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8.9733243239999982</v>
+      </c>
+      <c r="I11" s="5">
+        <v>170</v>
+      </c>
+      <c r="J11" s="5">
+        <v>20.236833191000006</v>
+      </c>
+      <c r="K11" s="5">
+        <v>170</v>
+      </c>
+      <c r="L11" s="5">
+        <v>126.724422416</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>16110.0</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="2">
+        <v>180</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16110</v>
       </c>
       <c r="D12" s="3">
-        <f>(2*(C12))/(B12*(B12-1))</f>
+        <f t="shared" si="0"/>
         <v>0.89013732833957548</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>180</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2054350000000004E-2</v>
       </c>
-      <c r="G12" s="5" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="H12" s="5" t="n">
-        <v>10.224262744999992</v>
-      </c>
-      <c r="I12" s="5" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="J12" s="5" t="n">
-        <v>23.426872140999997</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>180.0</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>160.24748873200002</v>
+      <c r="G12" s="5">
+        <v>180</v>
+      </c>
+      <c r="H12" s="5">
+        <v>10.324704344000011</v>
+      </c>
+      <c r="I12" s="5">
+        <v>180</v>
+      </c>
+      <c r="J12" s="5">
+        <v>23.507023299000014</v>
+      </c>
+      <c r="K12" s="5">
+        <v>180</v>
+      </c>
+      <c r="L12" s="5">
+        <v>160.92067329699992</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>17955.0</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="2">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17955</v>
       </c>
       <c r="D13" s="3">
-        <f>(2*(C13))/(B13*(B13-1))</f>
+        <f t="shared" si="0"/>
         <v>4.906584436785779E-2</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
-      <c r="G13" s="5" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>12.010265274000002</v>
-      </c>
-      <c r="I13" s="5" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="J13" s="5" t="n">
-        <v>27.723097686000035</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>190.0</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>199.6598094680004</v>
+      <c r="G13" s="5">
+        <v>190</v>
+      </c>
+      <c r="H13" s="5">
+        <v>11.920647473999992</v>
+      </c>
+      <c r="I13" s="5">
+        <v>190</v>
+      </c>
+      <c r="J13" s="5">
+        <v>27.363228458000009</v>
+      </c>
+      <c r="K13" s="5">
+        <v>190</v>
+      </c>
+      <c r="L13" s="5">
+        <v>194.98846437899996</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>35.0</v>
+        <v>62</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
       </c>
       <c r="D14" s="3">
-        <f>(2*(C14))/(B14*(B14-1))</f>
+        <f t="shared" si="0"/>
         <v>2.2124043033961757E-2</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.11084305000000001</v>
+      </c>
+      <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0.11084305000000001</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H14" s="5" t="n">
-        <v>0.007109088000000014</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J14" s="5" t="n">
-        <v>0.0036660079999999815</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>0.008932352000000008</v>
+      <c r="H14" s="5">
+        <v>8.4513049999999975E-3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3.3601430000000064E-3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>8.8782819999999908E-3</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>38.0</v>
+        <v>63</v>
+      </c>
+      <c r="B15" s="2">
+        <v>200</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19900</v>
       </c>
       <c r="D15" s="3">
-        <f>(2*(C15))/(B15*(B15-1))</f>
+        <f t="shared" si="0"/>
         <v>0.10949367088607595</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8458200000000001E-2</v>
       </c>
-      <c r="G15" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="H15" s="5" t="n">
-        <v>0.006330285000000025</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J15" s="5" t="n">
-        <v>0.0038913759999999998</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>0.006701951999999994</v>
+      <c r="G15" s="5">
+        <v>200</v>
+      </c>
+      <c r="H15" s="5">
+        <v>13.311097272000014</v>
+      </c>
+      <c r="I15" s="5">
+        <v>200</v>
+      </c>
+      <c r="J15" s="5">
+        <v>31.160377762000017</v>
+      </c>
+      <c r="K15" s="5">
+        <v>200</v>
+      </c>
+      <c r="L15" s="5">
+        <v>238.03897993400028</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2">
-        <v>405</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>3524</v>
+        <v>136</v>
       </c>
       <c r="D16" s="3">
-        <f>(2*(C16))/(B16*(B16-1))</f>
+        <f t="shared" si="0"/>
         <v>4.3075418652976406E-2</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
       <c r="G16" s="5">
+        <v>7</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1.6568807999999977E-2</v>
+      </c>
+      <c r="I16" s="5">
+        <v>7</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1.4327604000000055E-2</v>
+      </c>
+      <c r="K16" s="5">
         <v>6</v>
       </c>
-      <c r="H16" s="5">
-        <v>0.79651494999999994</v>
-      </c>
-      <c r="I16" s="5">
-        <v>8</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0.11084305000000001</v>
-      </c>
-      <c r="K16" s="5">
-        <v>4</v>
-      </c>
       <c r="L16" s="5">
-        <v>2.1411468</v>
+        <v>2.1820424999999821E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2">
-        <v>2030</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>33751</v>
+        <v>303</v>
       </c>
       <c r="D17" s="3">
-        <f>(2*(C17))/(B17*(B17-1))</f>
+        <f t="shared" si="0"/>
         <v>1.6388475479925318E-2</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11084305000000001</v>
       </c>
       <c r="G17" s="5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H17" s="5">
-        <v>0.79651494999999994</v>
+        <v>3.5705098999999949E-2</v>
       </c>
       <c r="I17" s="5">
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
+        <v>4.2865000999999944E-2</v>
+      </c>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="5">
-        <v>0.11084305000000001</v>
-      </c>
-      <c r="K17" s="5">
-        <v>4</v>
-      </c>
       <c r="L17" s="5">
-        <v>134.67495034999996</v>
+        <v>5.4095081000000093E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2">
-        <v>110</v>
+        <v>640</v>
       </c>
       <c r="D18" s="3">
-        <f>(2*(C18))/(B18*(B18-1))</f>
+        <f t="shared" si="0"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1429199999999997E-2</v>
       </c>
       <c r="G18" s="5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="H18" s="5">
-        <v>0.79651494999999994</v>
+        <v>8.7245250000000066E-2</v>
       </c>
       <c r="I18" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J18" s="5">
-        <v>0.11084305000000001</v>
+        <v>0.11761762299999991</v>
       </c>
       <c r="K18" s="5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L18" s="5">
-        <v>3.1429199999999997E-2</v>
+        <v>0.17461496899999981</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2">
-        <v>1046</v>
+        <v>1092</v>
       </c>
       <c r="D19" s="3">
-        <f>(2*(C19))/(B19*(B19-1))</f>
+        <f t="shared" si="0"/>
         <v>2.6588713777325877E-2</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" ref="E19:F22" si="1">MIN(G19,I19,K19)</f>
-        <v>4</v>
+        <f t="shared" ref="E19:E22" si="2">MIN(G19,I19,K19)</f>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E19:F22" si="3">MIN(H19,J19,L19)</f>
         <v>0.11084305000000001</v>
       </c>
       <c r="G19" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H19" s="5">
-        <v>0.79651494999999994</v>
+        <v>0.16867314899999994</v>
       </c>
       <c r="I19" s="5">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J19" s="5">
-        <v>0.11084305000000001</v>
+        <v>0.24042984000000012</v>
       </c>
       <c r="K19" s="5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L19" s="5">
-        <v>0.52846620000000011</v>
+        <v>0.43868871600000026</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2">
-        <v>1406</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2">
-        <v>9695</v>
+        <v>1692</v>
       </c>
       <c r="D20" s="3">
-        <f>(2*(C20))/(B20*(B20-1))</f>
+        <f t="shared" si="0"/>
         <v>9.8155844550300436E-3</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11084305000000001</v>
       </c>
       <c r="G20" s="5">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H20" s="5">
-        <v>0.79651494999999994</v>
+        <v>0.28571960600000007</v>
       </c>
       <c r="I20" s="5">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J20" s="5">
-        <v>0.11084305000000001</v>
+        <v>0.43551274299999981</v>
       </c>
       <c r="K20" s="5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L20" s="5">
-        <v>49.971996199999992</v>
+        <v>1.1216796789999983</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2536</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3993168762614506E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B21" s="2">
-        <v>114</v>
-      </c>
-      <c r="C21" s="2">
-        <v>541</v>
-      </c>
-      <c r="D21" s="3">
-        <f>(2*(C21))/(B21*(B21-1))</f>
-        <v>8.3993168762614506E-2</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11084305000000001</v>
       </c>
       <c r="G21" s="5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="H21" s="5">
-        <v>0.79651494999999994</v>
+        <v>0.50958212400000036</v>
       </c>
       <c r="I21" s="5">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="J21" s="5">
-        <v>0.11084305000000001</v>
+        <v>0.85143065799999962</v>
       </c>
       <c r="K21" s="5">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L21" s="5">
-        <v>0.11901595000000001</v>
+        <v>2.578182356000001</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2">
-        <v>156</v>
+        <v>3588</v>
       </c>
       <c r="D22" s="3">
-        <f>(2*(C22))/(B22*(B22-1))</f>
+        <f t="shared" si="0"/>
         <v>5.0632911392405063E-2</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.3577499999999996E-2</v>
       </c>
       <c r="G22" s="5">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="H22" s="5">
-        <v>0.79651494999999994</v>
+        <v>0.85887179899999877</v>
       </c>
       <c r="I22" s="5">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="J22" s="5">
-        <v>0.11084305000000001</v>
+        <v>1.4823502899999994</v>
       </c>
       <c r="K22" s="5">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="L22" s="5">
-        <v>3.3577499999999996E-2</v>
+        <v>5.7936783119999973</v>
       </c>
     </row>
   </sheetData>
